--- a/Test/Lawnmower/T2/Sensors_data_1000014.xlsx
+++ b/Test/Lawnmower/T2/Sensors_data_1000014.xlsx
@@ -475,13 +475,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9813715867909625</v>
+        <v>0.9803905211783216</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001494105875687841</v>
+        <v>0.000796764315670297</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2191111330334846</v>
+        <v>0.01757673566378914</v>
       </c>
       <c r="F2" t="n">
         <v>5</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9738437493028165</v>
+        <v>0.9554811643067834</v>
       </c>
       <c r="D3" t="n">
-        <v>0.001387126449749977</v>
+        <v>0.001879151270029195</v>
       </c>
       <c r="E3" t="n">
-        <v>0.05808225842448328</v>
+        <v>0.3317081587688631</v>
       </c>
       <c r="F3" t="n">
         <v>5</v>
@@ -525,13 +525,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.6569065558152769</v>
+        <v>0.03153433261470784</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01933705955832242</v>
+        <v>0.05297889442873871</v>
       </c>
       <c r="E4" t="n">
-        <v>0.04831149576920524</v>
+        <v>0.503679508242358</v>
       </c>
       <c r="F4" t="n">
         <v>5</v>
@@ -550,13 +550,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9591138635319781</v>
+        <v>0.9908218056970273</v>
       </c>
       <c r="D5" t="n">
-        <v>0.002122808556963046</v>
+        <v>0.0002585063717843424</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1320774837583659</v>
+        <v>0.07522537346470598</v>
       </c>
       <c r="F5" t="n">
         <v>5</v>
